--- a/muaamal.xlsx
+++ b/muaamal.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-learnning\Learning_git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E2BFA2-ADC6-49BD-9EA4-D918E0BF5B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+  <si>
+    <t>عمود1</t>
+  </si>
+  <si>
+    <t>عمود2</t>
+  </si>
+  <si>
+    <t>عمود3</t>
+  </si>
+  <si>
+    <t>عمود4</t>
+  </si>
+  <si>
+    <t>عمود5</t>
+  </si>
+  <si>
+    <t>عمود6</t>
+  </si>
+  <si>
+    <t>عمود7</t>
+  </si>
+  <si>
+    <t>بيبيب</t>
+  </si>
+  <si>
+    <t>ب</t>
+  </si>
+  <si>
+    <t>يبسيب</t>
+  </si>
+  <si>
+    <t>سي</t>
+  </si>
+  <si>
+    <t>ث</t>
+  </si>
+  <si>
+    <t>قث</t>
+  </si>
+  <si>
+    <t>بي</t>
+  </si>
+  <si>
+    <t>ي</t>
+  </si>
+  <si>
+    <t>سث</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +87,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,14 +117,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="جيد" xfId="1" builtinId="26"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +140,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDEFE05E-AE3C-4562-9566-BCA5DAF3048D}" name="الجدول1" displayName="الجدول1" ref="A1:G13" totalsRowShown="0" headerRowCellStyle="جيد" dataCellStyle="جيد">
+  <autoFilter ref="A1:G13" xr:uid="{DDEFE05E-AE3C-4562-9566-BCA5DAF3048D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DD85C0A5-25BF-49DB-BDC0-B491265E9CD1}" name="عمود1" dataCellStyle="جيد"/>
+    <tableColumn id="2" xr3:uid="{D78CB2CA-F708-4024-958E-5F564DD9E617}" name="عمود2" dataCellStyle="جيد"/>
+    <tableColumn id="3" xr3:uid="{90573107-5126-4B8B-BFFD-EADDD03C7F40}" name="عمود3" dataCellStyle="جيد"/>
+    <tableColumn id="4" xr3:uid="{4025463C-A789-49F5-B734-42B88B23BF7D}" name="عمود4" dataCellStyle="جيد"/>
+    <tableColumn id="5" xr3:uid="{46AF7816-BD41-4E34-964B-B1ED186DAC9C}" name="عمود5" dataCellStyle="جيد"/>
+    <tableColumn id="6" xr3:uid="{58BE7568-4EE3-4F5E-AA8F-7C4278EC64D2}" name="عمود6" dataCellStyle="جيد"/>
+    <tableColumn id="7" xr3:uid="{6494C85D-CCE9-4215-B8D8-D21595D33003}" name="عمود7" dataCellStyle="جيد"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +420,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>